--- a/Documentation/ApiEndpoints.xlsx
+++ b/Documentation/ApiEndpoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K TECH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIAIC Practice\Quarter 2\Hackathon\Marketplace Technical Foundation - FurnitureMart.pk\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676A003-550B-442C-AC18-E27C751DE939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278137DC-65B3-4781-B5C0-3D4DD3DF3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Endpoint</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>POST/GET/DELETE/PATCH</t>
+  </si>
+  <si>
+    <t>/api/cart</t>
+  </si>
+  <si>
+    <t>Store and manage cart data from frontend in sanity.</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -499,6 +505,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/ApiEndpoints.xlsx
+++ b/Documentation/ApiEndpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIAIC Practice\Quarter 2\Hackathon\Marketplace Technical Foundation - FurnitureMart.pk\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278137DC-65B3-4781-B5C0-3D4DD3DF3501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8721C523-AD38-46F6-9ACE-0892F224092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3015" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Endpoint</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Store and manage cart data from frontend in sanity.</t>
+  </si>
+  <si>
+    <t>/api/auth/verify</t>
+  </si>
+  <si>
+    <t>Verifies a user’s email address using a token.</t>
+  </si>
+  <si>
+    <t>/api/auth/reset</t>
+  </si>
+  <si>
+    <t>Sends a password reset link to the user’s email.</t>
+  </si>
+  <si>
+    <t>/api/auth/login</t>
+  </si>
+  <si>
+    <t>Authenticates a user and returns a session token.</t>
   </si>
 </sst>
 </file>
@@ -423,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -516,6 +534,39 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
